--- a/questions_v3v2.xlsx
+++ b/questions_v3v2.xlsx
@@ -1,69 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlbkm\Coding\document-tagging\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF976BBA-DD74-4911-9425-1E86E87940F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="10610" yWindow="3850" windowWidth="24320" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Q_FOR_SCRIPT" sheetId="1" r:id="rId4"/>
+    <sheet name="Q_FOR_SCRIPT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Year of Report.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The date on which the study/document was published.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Output a single 4 digit year. E.g. "2002"</t>
     </r>
@@ -71,55 +87,62 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Period Analyzed.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The period of time covered by the study; whether it is e.g. the period of time during which a particular approach was undertaken or the span of time during which some results are viewed/or observations post-factum are made. As they can be for example, an approach undertaken during 2 years, or a report reviewing progress across X years after the approach was complete.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Your reply must specify the start and end dates as four digit years separated by a dash, for example "1994-2002".</t>
     </r>
@@ -127,39 +150,44 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Category of Study.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The category of the study; based on what it is about. Read through the content and then assign accordingly 1 of the following 5 categories:
 - (1) Ex post impact study/impact assesment;
@@ -171,16 +199,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">** Reply with only 1 category, that which is most appropriate/fitting, and ignoring the text in parenthesis. For example, if using the category listed as "5)" above you would just reply with "Other" </t>
     </r>
@@ -188,39 +218,44 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Primary and Secondary CGIAR Impact Area(s).
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The CGIAR Impact Area(s) the study addresses. The study should have/target at least one Impact Area. If the study addresses more than one Impact Area, identify all that would apply and rank them internally based on the most fitting to the document based on the descriptions below.
 - (1) "Nutrition, health and food security": "Enable affordable, healthy diets for the 3 billion people who currently lack access to safe and nutritious food. Decrease cases of foodborne illness and zoonotic diseases by one-third."
@@ -232,16 +267,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** If the study focuses only on one main Impact Area, then return the name of the Impact Area (from those above), without the description in this format: "Main Area Name; No Secondary Impact Area(s)". For example: "Climate adaptation and mitigation; No Secondary Impact Area(s)". If targeting multiple Impact Areas, then your response will be the name of the applicable Impact Areas based on your internal ranking, separated by semicolors, starting from the most relevant/targeted and then going down from there. For example, if it targets two, it could be something like this: "Environmental health and biodiversity; Climate adaptation and mitigation".</t>
     </r>
@@ -249,55 +286,62 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Country of Study.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The name of the country where the study/observations took place.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Reply with the name of the country, e.g. "Spain". If the study took place in more than one country, then reply "Multiple".</t>
     </r>
@@ -305,39 +349,44 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**: CGIAR Region.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The CGIAR geographic region where the study took place, based on the following categories. If the study took place/focused on a single country, then choose the region where that country would be located. If it spanned several countries that end up belonging to more than one of the regions below, then reply instead with "Multiple". The categories are:
 - (1) ESA: "East and Southern Africa"
@@ -350,16 +399,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The name of the region above without the description, e.g. "WCA." If spanning multiple regions, then reply with "Multiple" instead.</t>
     </r>
@@ -367,39 +418,44 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Primary Product Type.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The primary production of the agrifood system that the CGIAR center is studying. Identify the type of the primary product and then categorize it based on the vocabulary used in AGROVOC. For example:
 - (1) Cultivation of crops (e.g. cereals, legumes, fruits, and vegetables)
@@ -408,16 +464,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Your response should be a string with the categorization for the primary product type, identifying the product and where applicable, its purpose. For example "Cultivation of crops (legumes)" or "Rearing of livesock (cattle) for food". Use your judgement and AGROVOC vocabulary for the response wording.</t>
     </r>
@@ -425,39 +483,44 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Category for Natural Resource Management.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The study would identify the practices that the CGIAR center is studying. These practices regard in general the stewardship of ecosystems, biodiversity, soil health, water systems, and climate resilience to ensure sustainable food production. You have to go through the document/content and identify the main practices the study identified, is concerned about; or to which its content/impact is related. You should then assign one of the categories below and return that as your answer. Some categories are general, like "Crop management" while others are more specific, like "Crop management - agroforestry." Assign first the general category to the Natural Resource Management practices identified in the study and then do another pass to see if there is enough information to apply instead one of the more specific labels/categories. The categories are:
 - Aquaculture
@@ -494,16 +557,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Return a single category from the ones above as your response.</t>
     </r>
@@ -511,95 +576,107 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Study Theme.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** The main topic/theme of the study; which is the attribution/contribution of CGIAR interventions/policies/innovations by a CGIAR center. There are no predefined categories for this parameter.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Your answer should be in the format of a short title that outlines the theme.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-      </rPr>
+    <t>**Parameter:** Title.
+**Description:** The title of the document.
+**Output Format:** Your answer should be in the format of a short title, directly extracted from the text</t>
+  </si>
+  <si>
+    <r>
       <t>**</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Parameter:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** Name; Unit/Metric; and Value for Reported Indicator of Impact.
 **</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Description</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>:** Some studies use/report an Indicator of Impact to assess the impact/outcome of CGIAR contributions, as a way to measure it. Go through the content and identify the Indicator of Impact used, and then identify what unit/metric is used to measure it, and then identify its value. For example:
 - "Increase in farmable land; hectares; 3"
@@ -609,42 +686,81 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Output Format:</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>** When an Indicator of Impact is reported and identified, return the name, unit/metric, and  value of the most relevant one like this "Name; Unit/Metric; Value". For example "Increase in gender engagement; Number of women; 1300" or "Increase in profits from selling crops; thousands of USD; 12", etc. If no Indicator is reported, return instead "Not reported; NA; NA"</t>
     </r>
+  </si>
+  <si>
+    <t>**Parameter:** Contributing Initiatives or centers.
+**Description:** CGIAR is associated with multiple Initiatives and Centers. You need to extract the names of the ones mentioned in the text, if any.
+**Output Format:** Your response should be a string with values separated by commas. For example "CIMMYT, AgriLac Resiliente, ICARDA".</t>
+  </si>
+  <si>
+    <t>**Parameter:** Link or DOI.
+**Description:** Extract the DOI or URL that references to this article in its content.
+**Output Format:** Your response should be a string with the URL.</t>
+  </si>
+  <si>
+    <t>**Parameter:** Keywords.
+**Description:** Create a list of the top 5 most relevant keywords from this article.
+**Output Format:** Your response should be a string with values separated by commas.</t>
+  </si>
+  <si>
+    <t>**Parameter:** Summary.
+**Description:** Create a summary of the text provided.
+**Output Format:** Your answer should be in the format of 1 or 2 paragraphs, that summarizes the text.</t>
+  </si>
+  <si>
+    <t>**Parameter:** Crops.
+**Description:** Create a list of any of the crops mentioned in the text.
+**Output Format:** Your response should be a string with values separated by commas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -652,7 +768,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -662,41 +778,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -886,28 +1014,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF1C232"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="21.57"/>
-    <col customWidth="1" min="4" max="4" width="71.57"/>
-    <col customWidth="1" min="5" max="7" width="21.57"/>
-    <col customWidth="1" min="8" max="8" width="57.29"/>
-    <col customWidth="1" min="9" max="10" width="21.57"/>
+    <col min="1" max="3" width="21.59765625" customWidth="1"/>
+    <col min="4" max="4" width="71.59765625" customWidth="1"/>
+    <col min="5" max="7" width="21.59765625" customWidth="1"/>
+    <col min="8" max="8" width="57.296875" customWidth="1"/>
+    <col min="9" max="10" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -919,7 +1052,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -938,20 +1071,38 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>